--- a/csv/1230-1260/BallT.xlsx
+++ b/csv/1230-1260/BallT.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29231"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\_s2420729\Documents\GitHub\VEA\csv\1230-1260\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A533827-0763-4470-9D36-9063908DAB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4044979D-2E10-4591-A673-2901895CF61C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="2880" windowWidth="29440" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="16440" windowHeight="28320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -397,7 +397,7 @@
   <dimension ref="A1:J904"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:D1048576"/>
+      <selection activeCell="M900" sqref="M900"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -25632,20 +25632,6 @@
       <c r="D902" s="1">
         <v>14</v>
       </c>
-      <c r="G902">
-        <v>901</v>
-      </c>
-      <c r="H902">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I902">
-        <v>0.115</v>
-      </c>
-      <c r="J902">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
     </row>
     <row r="903" spans="1:10">
       <c r="A903" s="1">
@@ -25659,20 +25645,6 @@
       </c>
       <c r="D903" s="1">
         <v>14</v>
-      </c>
-      <c r="G903">
-        <v>902</v>
-      </c>
-      <c r="H903">
-        <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="I903">
-        <v>0.115</v>
-      </c>
-      <c r="J903">
-        <f t="shared" si="29"/>
-        <v>0</v>
       </c>
     </row>
     <row r="904" spans="1:10">
